--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_188.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_188.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32253-d76638-Reviews-Days_Inn_Costa_Mesa_Newport_Beach-Costa_Mesa_California.html</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>272</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Days-Inn-By-Wyndham-Costa-MesaNewport-Beach.h8835.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_188.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_188.xlsx
@@ -3725,7 +3725,7 @@
         <v>11519</v>
       </c>
       <c r="B3" t="n">
-        <v>134865</v>
+        <v>165763</v>
       </c>
       <c r="C3" t="s">
         <v>53</v>
@@ -3786,7 +3786,7 @@
         <v>11519</v>
       </c>
       <c r="B4" t="n">
-        <v>134866</v>
+        <v>165764</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
@@ -4070,7 +4070,7 @@
         <v>11519</v>
       </c>
       <c r="B8" t="n">
-        <v>134867</v>
+        <v>165765</v>
       </c>
       <c r="C8" t="s">
         <v>90</v>
@@ -4141,7 +4141,7 @@
         <v>11519</v>
       </c>
       <c r="B9" t="n">
-        <v>134868</v>
+        <v>165766</v>
       </c>
       <c r="C9" t="s">
         <v>98</v>
@@ -4269,7 +4269,7 @@
         <v>11519</v>
       </c>
       <c r="B11" t="n">
-        <v>134869</v>
+        <v>165767</v>
       </c>
       <c r="C11" t="s">
         <v>113</v>
@@ -4340,7 +4340,7 @@
         <v>11519</v>
       </c>
       <c r="B12" t="n">
-        <v>134870</v>
+        <v>165768</v>
       </c>
       <c r="C12" t="s">
         <v>120</v>
@@ -4411,7 +4411,7 @@
         <v>11519</v>
       </c>
       <c r="B13" t="n">
-        <v>134871</v>
+        <v>165769</v>
       </c>
       <c r="C13" t="s">
         <v>127</v>
@@ -4478,7 +4478,7 @@
         <v>11519</v>
       </c>
       <c r="B14" t="n">
-        <v>134872</v>
+        <v>165770</v>
       </c>
       <c r="C14" t="s">
         <v>135</v>
@@ -4549,7 +4549,7 @@
         <v>11519</v>
       </c>
       <c r="B15" t="n">
-        <v>134873</v>
+        <v>165771</v>
       </c>
       <c r="C15" t="s">
         <v>142</v>
@@ -4681,7 +4681,7 @@
         <v>11519</v>
       </c>
       <c r="B17" t="n">
-        <v>134874</v>
+        <v>165772</v>
       </c>
       <c r="C17" t="s">
         <v>154</v>
@@ -4746,7 +4746,7 @@
         <v>11519</v>
       </c>
       <c r="B18" t="n">
-        <v>134875</v>
+        <v>165773</v>
       </c>
       <c r="C18" t="s">
         <v>161</v>
@@ -4817,7 +4817,7 @@
         <v>11519</v>
       </c>
       <c r="B19" t="n">
-        <v>134876</v>
+        <v>165774</v>
       </c>
       <c r="C19" t="s">
         <v>168</v>
@@ -4888,7 +4888,7 @@
         <v>11519</v>
       </c>
       <c r="B20" t="n">
-        <v>134877</v>
+        <v>165775</v>
       </c>
       <c r="C20" t="s">
         <v>175</v>
@@ -4959,7 +4959,7 @@
         <v>11519</v>
       </c>
       <c r="B21" t="n">
-        <v>134878</v>
+        <v>165776</v>
       </c>
       <c r="C21" t="s">
         <v>181</v>
@@ -5020,7 +5020,7 @@
         <v>11519</v>
       </c>
       <c r="B22" t="n">
-        <v>134879</v>
+        <v>165777</v>
       </c>
       <c r="C22" t="s">
         <v>187</v>
@@ -5077,7 +5077,7 @@
         <v>11519</v>
       </c>
       <c r="B23" t="n">
-        <v>134880</v>
+        <v>165778</v>
       </c>
       <c r="C23" t="s">
         <v>194</v>
@@ -5148,7 +5148,7 @@
         <v>11519</v>
       </c>
       <c r="B24" t="n">
-        <v>134881</v>
+        <v>165779</v>
       </c>
       <c r="C24" t="s">
         <v>200</v>
@@ -5219,7 +5219,7 @@
         <v>11519</v>
       </c>
       <c r="B25" t="n">
-        <v>134882</v>
+        <v>165780</v>
       </c>
       <c r="C25" t="s">
         <v>205</v>
@@ -5361,7 +5361,7 @@
         <v>11519</v>
       </c>
       <c r="B27" t="n">
-        <v>134883</v>
+        <v>165781</v>
       </c>
       <c r="C27" t="s">
         <v>219</v>
@@ -5426,7 +5426,7 @@
         <v>11519</v>
       </c>
       <c r="B28" t="n">
-        <v>134884</v>
+        <v>165782</v>
       </c>
       <c r="C28" t="s">
         <v>225</v>
@@ -5497,7 +5497,7 @@
         <v>11519</v>
       </c>
       <c r="B29" t="n">
-        <v>134885</v>
+        <v>165783</v>
       </c>
       <c r="C29" t="s">
         <v>231</v>
@@ -5568,7 +5568,7 @@
         <v>11519</v>
       </c>
       <c r="B30" t="n">
-        <v>134886</v>
+        <v>165784</v>
       </c>
       <c r="C30" t="s">
         <v>239</v>
@@ -5639,7 +5639,7 @@
         <v>11519</v>
       </c>
       <c r="B31" t="n">
-        <v>134887</v>
+        <v>165785</v>
       </c>
       <c r="C31" t="s">
         <v>245</v>
@@ -5710,7 +5710,7 @@
         <v>11519</v>
       </c>
       <c r="B32" t="n">
-        <v>134888</v>
+        <v>165786</v>
       </c>
       <c r="C32" t="s">
         <v>251</v>
@@ -5919,7 +5919,7 @@
         <v>11519</v>
       </c>
       <c r="B35" t="n">
-        <v>134889</v>
+        <v>165787</v>
       </c>
       <c r="C35" t="s">
         <v>270</v>
@@ -5990,7 +5990,7 @@
         <v>11519</v>
       </c>
       <c r="B36" t="n">
-        <v>134890</v>
+        <v>165788</v>
       </c>
       <c r="C36" t="s">
         <v>277</v>
@@ -6061,7 +6061,7 @@
         <v>11519</v>
       </c>
       <c r="B37" t="n">
-        <v>134891</v>
+        <v>165789</v>
       </c>
       <c r="C37" t="s">
         <v>284</v>
@@ -6132,7 +6132,7 @@
         <v>11519</v>
       </c>
       <c r="B38" t="n">
-        <v>134892</v>
+        <v>165790</v>
       </c>
       <c r="C38" t="s">
         <v>290</v>
@@ -6203,7 +6203,7 @@
         <v>11519</v>
       </c>
       <c r="B39" t="n">
-        <v>134893</v>
+        <v>165791</v>
       </c>
       <c r="C39" t="s">
         <v>297</v>
@@ -6337,7 +6337,7 @@
         <v>11519</v>
       </c>
       <c r="B41" t="n">
-        <v>134894</v>
+        <v>165792</v>
       </c>
       <c r="C41" t="s">
         <v>310</v>
@@ -6550,7 +6550,7 @@
         <v>11519</v>
       </c>
       <c r="B44" t="n">
-        <v>134895</v>
+        <v>165793</v>
       </c>
       <c r="C44" t="s">
         <v>328</v>
@@ -6692,7 +6692,7 @@
         <v>11519</v>
       </c>
       <c r="B46" t="n">
-        <v>134896</v>
+        <v>165794</v>
       </c>
       <c r="C46" t="s">
         <v>342</v>
@@ -6763,7 +6763,7 @@
         <v>11519</v>
       </c>
       <c r="B47" t="n">
-        <v>134897</v>
+        <v>165795</v>
       </c>
       <c r="C47" t="s">
         <v>348</v>
@@ -6834,7 +6834,7 @@
         <v>11519</v>
       </c>
       <c r="B48" t="n">
-        <v>134898</v>
+        <v>165796</v>
       </c>
       <c r="C48" t="s">
         <v>355</v>
@@ -6901,7 +6901,7 @@
         <v>11519</v>
       </c>
       <c r="B49" t="n">
-        <v>134899</v>
+        <v>165797</v>
       </c>
       <c r="C49" t="s">
         <v>361</v>
@@ -6972,7 +6972,7 @@
         <v>11519</v>
       </c>
       <c r="B50" t="n">
-        <v>134900</v>
+        <v>165798</v>
       </c>
       <c r="C50" t="s">
         <v>367</v>
@@ -7033,7 +7033,7 @@
         <v>11519</v>
       </c>
       <c r="B51" t="n">
-        <v>134901</v>
+        <v>165799</v>
       </c>
       <c r="C51" t="s">
         <v>374</v>
@@ -7104,7 +7104,7 @@
         <v>11519</v>
       </c>
       <c r="B52" t="n">
-        <v>134902</v>
+        <v>165800</v>
       </c>
       <c r="C52" t="s">
         <v>380</v>
@@ -7175,7 +7175,7 @@
         <v>11519</v>
       </c>
       <c r="B53" t="n">
-        <v>134903</v>
+        <v>165801</v>
       </c>
       <c r="C53" t="s">
         <v>386</v>
@@ -7242,7 +7242,7 @@
         <v>11519</v>
       </c>
       <c r="B54" t="n">
-        <v>134904</v>
+        <v>165802</v>
       </c>
       <c r="C54" t="s">
         <v>393</v>
@@ -7313,7 +7313,7 @@
         <v>11519</v>
       </c>
       <c r="B55" t="n">
-        <v>134905</v>
+        <v>165803</v>
       </c>
       <c r="C55" t="s">
         <v>400</v>
@@ -7455,7 +7455,7 @@
         <v>11519</v>
       </c>
       <c r="B57" t="n">
-        <v>134906</v>
+        <v>165804</v>
       </c>
       <c r="C57" t="s">
         <v>413</v>
@@ -7526,7 +7526,7 @@
         <v>11519</v>
       </c>
       <c r="B58" t="n">
-        <v>134907</v>
+        <v>165805</v>
       </c>
       <c r="C58" t="s">
         <v>419</v>
@@ -7597,7 +7597,7 @@
         <v>11519</v>
       </c>
       <c r="B59" t="n">
-        <v>134908</v>
+        <v>165806</v>
       </c>
       <c r="C59" t="s">
         <v>424</v>
@@ -7739,7 +7739,7 @@
         <v>11519</v>
       </c>
       <c r="B61" t="n">
-        <v>134909</v>
+        <v>165807</v>
       </c>
       <c r="C61" t="s">
         <v>437</v>
@@ -7800,7 +7800,7 @@
         <v>11519</v>
       </c>
       <c r="B62" t="n">
-        <v>134910</v>
+        <v>134883</v>
       </c>
       <c r="C62" t="s">
         <v>443</v>
@@ -7871,7 +7871,7 @@
         <v>11519</v>
       </c>
       <c r="B63" t="n">
-        <v>134911</v>
+        <v>165808</v>
       </c>
       <c r="C63" t="s">
         <v>450</v>
@@ -7942,7 +7942,7 @@
         <v>11519</v>
       </c>
       <c r="B64" t="n">
-        <v>134912</v>
+        <v>165809</v>
       </c>
       <c r="C64" t="s">
         <v>456</v>
@@ -8013,7 +8013,7 @@
         <v>11519</v>
       </c>
       <c r="B65" t="n">
-        <v>134913</v>
+        <v>165810</v>
       </c>
       <c r="C65" t="s">
         <v>461</v>
@@ -8151,7 +8151,7 @@
         <v>11519</v>
       </c>
       <c r="B67" t="n">
-        <v>134914</v>
+        <v>165811</v>
       </c>
       <c r="C67" t="s">
         <v>474</v>
@@ -8222,7 +8222,7 @@
         <v>11519</v>
       </c>
       <c r="B68" t="n">
-        <v>134915</v>
+        <v>165812</v>
       </c>
       <c r="C68" t="s">
         <v>480</v>
@@ -8433,7 +8433,7 @@
         <v>11519</v>
       </c>
       <c r="B71" t="n">
-        <v>134916</v>
+        <v>165813</v>
       </c>
       <c r="C71" t="s">
         <v>498</v>
@@ -8504,7 +8504,7 @@
         <v>11519</v>
       </c>
       <c r="B72" t="n">
-        <v>134917</v>
+        <v>165814</v>
       </c>
       <c r="C72" t="s">
         <v>504</v>
@@ -8637,7 +8637,7 @@
         <v>11519</v>
       </c>
       <c r="B74" t="n">
-        <v>134909</v>
+        <v>134883</v>
       </c>
       <c r="C74" t="s">
         <v>443</v>
@@ -8700,7 +8700,7 @@
         <v>11519</v>
       </c>
       <c r="B75" t="n">
-        <v>134918</v>
+        <v>165815</v>
       </c>
       <c r="C75" t="s">
         <v>520</v>
@@ -8763,7 +8763,7 @@
         <v>11519</v>
       </c>
       <c r="B76" t="n">
-        <v>134919</v>
+        <v>165816</v>
       </c>
       <c r="C76" t="s">
         <v>526</v>
@@ -8889,7 +8889,7 @@
         <v>11519</v>
       </c>
       <c r="B78" t="n">
-        <v>134920</v>
+        <v>165817</v>
       </c>
       <c r="C78" t="s">
         <v>538</v>
@@ -8952,7 +8952,7 @@
         <v>11519</v>
       </c>
       <c r="B79" t="n">
-        <v>134921</v>
+        <v>165818</v>
       </c>
       <c r="C79" t="s">
         <v>544</v>
@@ -9094,7 +9094,7 @@
         <v>11519</v>
       </c>
       <c r="B81" t="n">
-        <v>134922</v>
+        <v>165819</v>
       </c>
       <c r="C81" t="s">
         <v>558</v>
@@ -9159,7 +9159,7 @@
         <v>11519</v>
       </c>
       <c r="B82" t="n">
-        <v>134923</v>
+        <v>165820</v>
       </c>
       <c r="C82" t="s">
         <v>566</v>
@@ -9230,7 +9230,7 @@
         <v>11519</v>
       </c>
       <c r="B83" t="n">
-        <v>134924</v>
+        <v>165821</v>
       </c>
       <c r="C83" t="s">
         <v>572</v>
@@ -9292,7 +9292,7 @@
         <v>11519</v>
       </c>
       <c r="B84" t="n">
-        <v>134925</v>
+        <v>165822</v>
       </c>
       <c r="C84" t="s">
         <v>576</v>
@@ -9363,7 +9363,7 @@
         <v>11519</v>
       </c>
       <c r="B85" t="n">
-        <v>134926</v>
+        <v>165823</v>
       </c>
       <c r="C85" t="s">
         <v>583</v>
@@ -9430,7 +9430,7 @@
         <v>11519</v>
       </c>
       <c r="B86" t="n">
-        <v>134927</v>
+        <v>165824</v>
       </c>
       <c r="C86" t="s">
         <v>591</v>
@@ -9501,7 +9501,7 @@
         <v>11519</v>
       </c>
       <c r="B87" t="n">
-        <v>134928</v>
+        <v>165825</v>
       </c>
       <c r="C87" t="s">
         <v>597</v>
@@ -9572,7 +9572,7 @@
         <v>11519</v>
       </c>
       <c r="B88" t="n">
-        <v>134929</v>
+        <v>165826</v>
       </c>
       <c r="C88" t="s">
         <v>603</v>
@@ -9714,7 +9714,7 @@
         <v>11519</v>
       </c>
       <c r="B90" t="n">
-        <v>134930</v>
+        <v>165827</v>
       </c>
       <c r="C90" t="s">
         <v>615</v>
@@ -9785,7 +9785,7 @@
         <v>11519</v>
       </c>
       <c r="B91" t="n">
-        <v>134931</v>
+        <v>165828</v>
       </c>
       <c r="C91" t="s">
         <v>621</v>
@@ -9852,7 +9852,7 @@
         <v>11519</v>
       </c>
       <c r="B92" t="n">
-        <v>134932</v>
+        <v>165829</v>
       </c>
       <c r="C92" t="s">
         <v>626</v>
@@ -9923,7 +9923,7 @@
         <v>11519</v>
       </c>
       <c r="B93" t="n">
-        <v>134933</v>
+        <v>165830</v>
       </c>
       <c r="C93" t="s">
         <v>632</v>
@@ -9994,7 +9994,7 @@
         <v>11519</v>
       </c>
       <c r="B94" t="n">
-        <v>134934</v>
+        <v>165831</v>
       </c>
       <c r="C94" t="s">
         <v>637</v>
@@ -10136,7 +10136,7 @@
         <v>11519</v>
       </c>
       <c r="B96" t="n">
-        <v>134935</v>
+        <v>165832</v>
       </c>
       <c r="C96" t="s">
         <v>650</v>
@@ -10203,7 +10203,7 @@
         <v>11519</v>
       </c>
       <c r="B97" t="n">
-        <v>134936</v>
+        <v>165833</v>
       </c>
       <c r="C97" t="s">
         <v>656</v>
@@ -10270,7 +10270,7 @@
         <v>11519</v>
       </c>
       <c r="B98" t="n">
-        <v>134937</v>
+        <v>165834</v>
       </c>
       <c r="C98" t="s">
         <v>662</v>
@@ -10335,7 +10335,7 @@
         <v>11519</v>
       </c>
       <c r="B99" t="n">
-        <v>134938</v>
+        <v>165835</v>
       </c>
       <c r="C99" t="s">
         <v>668</v>
@@ -10397,7 +10397,7 @@
         <v>11519</v>
       </c>
       <c r="B100" t="n">
-        <v>134939</v>
+        <v>165836</v>
       </c>
       <c r="C100" t="s">
         <v>672</v>
@@ -10468,7 +10468,7 @@
         <v>11519</v>
       </c>
       <c r="B101" t="n">
-        <v>134940</v>
+        <v>165837</v>
       </c>
       <c r="C101" t="s">
         <v>679</v>
@@ -10533,7 +10533,7 @@
         <v>11519</v>
       </c>
       <c r="B102" t="n">
-        <v>134941</v>
+        <v>165838</v>
       </c>
       <c r="C102" t="s">
         <v>687</v>
@@ -10675,7 +10675,7 @@
         <v>11519</v>
       </c>
       <c r="B104" t="n">
-        <v>134942</v>
+        <v>165839</v>
       </c>
       <c r="C104" t="s">
         <v>700</v>
@@ -10817,7 +10817,7 @@
         <v>11519</v>
       </c>
       <c r="B106" t="n">
-        <v>134943</v>
+        <v>165840</v>
       </c>
       <c r="C106" t="s">
         <v>713</v>
@@ -10888,7 +10888,7 @@
         <v>11519</v>
       </c>
       <c r="B107" t="n">
-        <v>134944</v>
+        <v>165841</v>
       </c>
       <c r="C107" t="s">
         <v>718</v>
@@ -11022,7 +11022,7 @@
         <v>11519</v>
       </c>
       <c r="B109" t="n">
-        <v>134945</v>
+        <v>165842</v>
       </c>
       <c r="C109" t="s">
         <v>730</v>
@@ -11420,7 +11420,7 @@
         <v>11519</v>
       </c>
       <c r="B115" t="n">
-        <v>134946</v>
+        <v>165843</v>
       </c>
       <c r="C115" t="s">
         <v>769</v>
@@ -11562,7 +11562,7 @@
         <v>11519</v>
       </c>
       <c r="B117" t="n">
-        <v>134947</v>
+        <v>165844</v>
       </c>
       <c r="C117" t="s">
         <v>783</v>
@@ -11695,7 +11695,7 @@
         <v>11519</v>
       </c>
       <c r="B119" t="n">
-        <v>134948</v>
+        <v>165845</v>
       </c>
       <c r="C119" t="s">
         <v>792</v>
@@ -11908,7 +11908,7 @@
         <v>11519</v>
       </c>
       <c r="B122" t="n">
-        <v>134949</v>
+        <v>165846</v>
       </c>
       <c r="C122" t="s">
         <v>813</v>
@@ -12050,7 +12050,7 @@
         <v>11519</v>
       </c>
       <c r="B124" t="n">
-        <v>134950</v>
+        <v>165847</v>
       </c>
       <c r="C124" t="s">
         <v>826</v>
@@ -12192,7 +12192,7 @@
         <v>11519</v>
       </c>
       <c r="B126" t="n">
-        <v>134951</v>
+        <v>165848</v>
       </c>
       <c r="C126" t="s">
         <v>839</v>
@@ -12614,7 +12614,7 @@
         <v>11519</v>
       </c>
       <c r="B132" t="n">
-        <v>134952</v>
+        <v>165849</v>
       </c>
       <c r="C132" t="s">
         <v>877</v>
@@ -12756,7 +12756,7 @@
         <v>11519</v>
       </c>
       <c r="B134" t="n">
-        <v>134953</v>
+        <v>165850</v>
       </c>
       <c r="C134" t="s">
         <v>889</v>
@@ -12958,7 +12958,7 @@
         <v>11519</v>
       </c>
       <c r="B137" t="n">
-        <v>134954</v>
+        <v>165851</v>
       </c>
       <c r="C137" t="s">
         <v>906</v>
@@ -13288,7 +13288,7 @@
         <v>11519</v>
       </c>
       <c r="B142" t="n">
-        <v>134955</v>
+        <v>165852</v>
       </c>
       <c r="C142" t="s">
         <v>938</v>
@@ -13359,7 +13359,7 @@
         <v>11519</v>
       </c>
       <c r="B143" t="n">
-        <v>134956</v>
+        <v>165853</v>
       </c>
       <c r="C143" t="s">
         <v>944</v>
@@ -13430,7 +13430,7 @@
         <v>11519</v>
       </c>
       <c r="B144" t="n">
-        <v>134957</v>
+        <v>165854</v>
       </c>
       <c r="C144" t="s">
         <v>952</v>
@@ -13501,7 +13501,7 @@
         <v>11519</v>
       </c>
       <c r="B145" t="n">
-        <v>134958</v>
+        <v>165855</v>
       </c>
       <c r="C145" t="s">
         <v>959</v>
@@ -13643,7 +13643,7 @@
         <v>11519</v>
       </c>
       <c r="B147" t="n">
-        <v>134909</v>
+        <v>134883</v>
       </c>
       <c r="C147" t="s">
         <v>443</v>
@@ -13714,7 +13714,7 @@
         <v>11519</v>
       </c>
       <c r="B148" t="n">
-        <v>134959</v>
+        <v>137924</v>
       </c>
       <c r="C148" t="s">
         <v>981</v>
@@ -13785,7 +13785,7 @@
         <v>11519</v>
       </c>
       <c r="B149" t="n">
-        <v>134960</v>
+        <v>165856</v>
       </c>
       <c r="C149" t="s">
         <v>987</v>
@@ -13927,7 +13927,7 @@
         <v>11519</v>
       </c>
       <c r="B151" t="n">
-        <v>134961</v>
+        <v>165857</v>
       </c>
       <c r="C151" t="s">
         <v>1001</v>
@@ -13998,7 +13998,7 @@
         <v>11519</v>
       </c>
       <c r="B152" t="n">
-        <v>134962</v>
+        <v>165858</v>
       </c>
       <c r="C152" t="s">
         <v>1008</v>
@@ -14065,7 +14065,7 @@
         <v>11519</v>
       </c>
       <c r="B153" t="n">
-        <v>134963</v>
+        <v>165859</v>
       </c>
       <c r="C153" t="s">
         <v>1015</v>
@@ -14132,7 +14132,7 @@
         <v>11519</v>
       </c>
       <c r="B154" t="n">
-        <v>134964</v>
+        <v>165860</v>
       </c>
       <c r="C154" t="s">
         <v>1021</v>
@@ -14199,7 +14199,7 @@
         <v>11519</v>
       </c>
       <c r="B155" t="n">
-        <v>134965</v>
+        <v>165861</v>
       </c>
       <c r="C155" t="s">
         <v>1028</v>
@@ -14270,7 +14270,7 @@
         <v>11519</v>
       </c>
       <c r="B156" t="n">
-        <v>134966</v>
+        <v>165862</v>
       </c>
       <c r="C156" t="s">
         <v>1035</v>
